--- a/doc/开发进度.xlsx
+++ b/doc/开发进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="App端" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,105 +217,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>供应商名称；（名称需唯一）
-供应商地址；
-生效标记；（生效、失效）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面录入信息：
-供应商名称；（名称需唯一）
-供应商地址；
-后台自动填写信息：
-操作员ID；
-创建时间；
-生效标记；（默认为生效）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>供应商管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>供应商列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>列表字段：
-名称、地址信息、创建时间；（按名称排序）
-查询字段：
-名称
-是否支持分页：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（最后做）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-是
-公共快捷功能：
-添加、生效/失效（支持多选）
-记录级快捷功能：
-生效/失效、编辑
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">注：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>使用Tab区分显示（生效、已失效）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示详细信息：
-名称、地址信息、创建时间、创建人姓名
-提供编辑按钮；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -402,10 +308,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>支持在表格中即时编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>角色管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -418,10 +320,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用于控制行为权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>系统用户管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -455,6 +353,10 @@
   </si>
   <si>
     <t>支持批量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +364,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,32 +383,6 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -921,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G42"/>
+  <dimension ref="B3:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -932,10 +808,10 @@
     <col min="3" max="3" width="30.25" customWidth="1"/>
     <col min="4" max="4" width="35.125" customWidth="1"/>
     <col min="5" max="5" width="39.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="24.625" customWidth="1"/>
+    <col min="6" max="6" width="53.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -949,13 +825,10 @@
         <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="108" x14ac:dyDescent="0.15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="108" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -969,9 +842,8 @@
         <v>35</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="2:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="3" t="s">
@@ -981,9 +853,8 @@
         <v>25</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B6" s="6"/>
       <c r="C6" s="5" t="s">
         <v>31</v>
@@ -995,9 +866,8 @@
         <v>29</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="1" t="s">
@@ -1007,9 +877,8 @@
         <v>30</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1019,9 +888,8 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1031,41 +899,36 @@
         <v>33</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1073,65 +936,57 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
@@ -1141,9 +996,8 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="2:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B23" s="6"/>
       <c r="C23" s="5" t="s">
         <v>13</v>
@@ -1155,21 +1009,19 @@
         <v>20</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="3" t="s">
@@ -1179,9 +1031,8 @@
         <v>24</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="3" t="s">
@@ -1189,9 +1040,8 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="6"/>
       <c r="C27" s="5" t="s">
         <v>14</v>
@@ -1201,9 +1051,8 @@
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="3" t="s">
@@ -1211,9 +1060,8 @@
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="3" t="s">
@@ -1221,9 +1069,8 @@
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="3" t="s">
@@ -1231,103 +1078,90 @@
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1346,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G40"/>
+  <dimension ref="B2:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1357,12 +1191,10 @@
     <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="23.75" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="50.625" customWidth="1"/>
-    <col min="6" max="6" width="22.625" customWidth="1"/>
-    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="44.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1373,388 +1205,290 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="108" x14ac:dyDescent="0.15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="2:7" ht="162" x14ac:dyDescent="0.15">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="2:7" ht="54" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
       <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1772,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1856,13 +1590,13 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1872,7 +1606,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1882,7 +1616,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1892,7 +1626,7 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1909,13 +1643,13 @@
     <row r="14" spans="2:7" ht="54" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1924,7 +1658,7 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1934,7 +1668,7 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1968,13 +1702,13 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1984,10 +1718,10 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1996,10 +1730,10 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -2008,10 +1742,10 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -2034,10 +1768,10 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2055,10 +1789,10 @@
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -2068,7 +1802,7 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
